--- a/Gestion/Couts_Materiel.xlsx
+++ b/Gestion/Couts_Materiel.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Universite\S5\Projet\GitHub\ProjetS5\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Luis Anillo</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Par membre</t>
+  </si>
+  <si>
+    <t>Coûts payés par personne par matériel</t>
+  </si>
+  <si>
+    <t>Coûts à débourser par personne</t>
   </si>
 </sst>
 </file>
@@ -71,7 +77,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -118,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -193,26 +199,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,10 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F6:L19"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="F4:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,33 +571,79 @@
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="5" t="s">
+    <row r="4" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+    </row>
+    <row r="5" spans="6:22" x14ac:dyDescent="0.3">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="6" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="7" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F9" s="5" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+    </row>
+    <row r="9" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H9" s="3"/>
@@ -573,10 +651,17 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F10" s="5"/>
-      <c r="G10" s="6" t="s">
+      <c r="P9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>$I$19-H9-I9-J9-K9-L9</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="10" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="9"/>
+      <c r="G10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="2"/>
@@ -584,10 +669,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="P10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" ref="Q10:Q16" si="0">$I$19-H10-I10-J10-K10-L10</f>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="11" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="9"/>
+      <c r="G11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H11" s="2">
@@ -597,10 +689,17 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="5"/>
-      <c r="G12" s="6" t="s">
+      <c r="P11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="0"/>
+        <v>-25.375</v>
+      </c>
+    </row>
+    <row r="12" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="9"/>
+      <c r="G12" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="2"/>
@@ -608,10 +707,17 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
+      <c r="P12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="13" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="9"/>
+      <c r="G13" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="2"/>
@@ -619,10 +725,17 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F14" s="5"/>
-      <c r="G14" s="6" t="s">
+      <c r="P13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="14" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="9"/>
+      <c r="G14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="2"/>
@@ -630,10 +743,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="5"/>
-      <c r="G15" s="6" t="s">
+      <c r="P14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="15" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F15" s="9"/>
+      <c r="G15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="2"/>
@@ -641,10 +761,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
+      <c r="P15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
+    </row>
+    <row r="16" spans="6:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="9"/>
+      <c r="G16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="2"/>
@@ -652,30 +779,45 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
+      <c r="P16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="0"/>
+        <v>3.625</v>
+      </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>SUM(H9:L16)</f>
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>I18/COUNTA(G9:G16)</f>
         <v>3.625</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="F9:F16"/>
     <mergeCell ref="H7:L7"/>
+    <mergeCell ref="F4:L5"/>
+    <mergeCell ref="P4:Q5"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="TOUCHE PAS" prompt="TOUCHE PAS" sqref="Q9:Q16 I18:I19"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle=":(" error="Entre une valeur plus grande que 0 $" sqref="H9:L16">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
